--- a/Instances/03_01_OneResourcePerLevelC=1_NonStationary.xlsx
+++ b/Instances/03_01_OneResourcePerLevelC=1_NonStationary.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>15.68470588235294</v>
+        <v>19.46352941176471</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>35.64300235294117</v>
+        <v>70.32059294117646</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>33.64854588235294</v>
+        <v>28.00781176470588</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>32.02039905882353</v>
+        <v>26.70365364705882</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1738,7 +1738,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>20.84894117647059</v>
+        <v>41.13317647058823</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1767,7 +1767,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>50.11858823529412</v>
+        <v>47.22117647058824</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>34.33994352941176</v>
+        <v>67.74976941176472</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>61.11924705882353</v>
+        <v>50.92043294117647</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>461</v>
+        <v>651</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>9.555764705882353</v>
+        <v>18.85270588235294</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>797</v>
+        <v>1093</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>18.00847058823529</v>
+        <v>22.33976470588236</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>797</v>
+        <v>1093</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>12.00564705882353</v>
+        <v>14.89317647058824</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>23.45976470588235</v>
+        <v>22.1035294117647</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1970,7 +1970,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>36.46588235294117</v>
+        <v>45.23294117647058</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>461</v>
+        <v>651</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>20.84894117647059</v>
+        <v>41.13317647058823</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>461</v>
+        <v>651</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05664941176471</v>
+        <v>25.75965176470588</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>23.46654117647059</v>
+        <v>19.55073882352941</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>335</v>
+        <v>442</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>50.11858823529412</v>
+        <v>47.22117647058824</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D2" t="n">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D3" t="n">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="D7" t="n">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E7" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D8" t="n">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="C9" t="n">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="D9" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E9" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.324999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>3.674999999999999</v>
+        <v>0.7249999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>3.324999999999999</v>
+        <v>2.075</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.177499999999998</v>
+        <v>1.615</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>4.084999999999999</v>
+        <v>5.509999999999998</v>
       </c>
       <c r="E3" t="n">
-        <v>1.567499999999999</v>
+        <v>0.09499999999999997</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.997249999999998</v>
+        <v>2.913249999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>30.75849999999999</v>
+        <v>27.70974999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.522999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>2.574499999999999</v>
+        <v>5.216749999999998</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.072525</v>
+        <v>12.3804</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>19.77425</v>
       </c>
       <c r="D5" t="n">
-        <v>7.651775</v>
+        <v>1.977425</v>
       </c>
       <c r="E5" t="n">
-        <v>7.2219</v>
+        <v>8.167624999999999</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.914119999999999</v>
+        <v>5.528384999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>24.5706</v>
       </c>
       <c r="D6" t="n">
-        <v>4.0951</v>
+        <v>8.190199999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>7.064047499999999</v>
+        <v>14.74236</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.434061999999999</v>
+        <v>10.776857</v>
       </c>
       <c r="C7" t="n">
-        <v>10.19115825</v>
+        <v>22.7251115</v>
       </c>
       <c r="D7" t="n">
-        <v>18.0395215</v>
+        <v>14.05677</v>
       </c>
       <c r="E7" t="n">
-        <v>12.4168135</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.521495924999999</v>
+        <v>8.347249599999998</v>
       </c>
       <c r="C8" t="n">
-        <v>14.738112575</v>
+        <v>12.129597075</v>
       </c>
       <c r="D8" t="n">
-        <v>14.477261025</v>
+        <v>0.3912773249999999</v>
       </c>
       <c r="E8" t="n">
-        <v>18.2596085</v>
+        <v>10.17321045</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.556262319999999</v>
+        <v>17.2283668975</v>
       </c>
       <c r="C9" t="n">
-        <v>32.178602635</v>
+        <v>25.4865923525</v>
       </c>
       <c r="D9" t="n">
-        <v>15.8045349225</v>
+        <v>16.6588341075</v>
       </c>
       <c r="E9" t="n">
-        <v>8.258225454999998</v>
+        <v>8.542991849999998</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.56699656475</v>
+        <v>14.24247363075</v>
       </c>
       <c r="C10" t="n">
-        <v>6.585229743249998</v>
+        <v>35.37646676024999</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12.09844534225</v>
       </c>
       <c r="E10" t="n">
-        <v>8.116678520749998</v>
+        <v>15.77392240825</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.932653788474999</v>
+        <v>9.281332228575</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19.702477186975</v>
+        <v>15.6317174376</v>
       </c>
       <c r="E11" t="n">
-        <v>14.166243927825</v>
+        <v>4.23359013935</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>849.2</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>500.7</v>
+        <v>1795.9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2350.8</v>
+        <v>3121.3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2369.4</v>
+        <v>1783.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1409.9</v>
+        <v>3956</v>
       </c>
     </row>
   </sheetData>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
